--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -9909,13 +9909,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A8A0A0-6B97-4FEE-B826-DB74A86888AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A42C4C-D4EA-4E3B-B2B0-8F851311772A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1856CBC1-7BB4-4D4E-B67B-E2533EFCA858}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{327F8B9F-7B6A-4107-A6E8-A400544947E5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4C3AFF-3ED3-4A42-ACDC-B40453638B50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FFA71D-FA52-4A0E-A0C8-87513AD24FE7}"/>
 </file>